--- a/data/trans_dic/P41A_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41A_R2-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3353563847003044</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4200301403773031</v>
+        <v>0.4200301403773032</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.505829709866759</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5195963398747305</v>
+        <v>0.516788392783333</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2879951018330042</v>
+        <v>0.2852364472073269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3407419350328152</v>
+        <v>0.3403995093358053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3275878383802915</v>
+        <v>0.3282944998369492</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.360519561834818</v>
+        <v>0.3656096511903049</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2927083049911409</v>
+        <v>0.2919337241759139</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2817208133966025</v>
+        <v>0.2819191421839157</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3660011559098129</v>
+        <v>0.3632743537315392</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4563737104080134</v>
+        <v>0.4556515588804189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.31167845293164</v>
+        <v>0.3084620442570395</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3250619439673908</v>
+        <v>0.3283648599366351</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3654473388426682</v>
+        <v>0.3655968897977398</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6406043884900842</v>
+        <v>0.6445464473339036</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4032858274420848</v>
+        <v>0.4066170783222187</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4642181080623375</v>
+        <v>0.4592507678102645</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4625144207752054</v>
+        <v>0.457089223508546</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4904398124285089</v>
+        <v>0.491890947470847</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4178105348357445</v>
+        <v>0.4080734311032839</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3947977724975414</v>
+        <v>0.3902010311227944</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4783190435544794</v>
+        <v>0.4783774192489301</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5515654444245611</v>
+        <v>0.548329874374532</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3922556135130292</v>
+        <v>0.391419716830826</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4117452563992701</v>
+        <v>0.4115827661902728</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4505049902768146</v>
+        <v>0.4494986463474923</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3115259497273615</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4201573049483621</v>
+        <v>0.4201573049483622</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.411423801189387</v>
@@ -821,7 +821,7 @@
         <v>0.2762037105328802</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2939227073192215</v>
+        <v>0.2939227073192214</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4440281982736773</v>
@@ -833,7 +833,7 @@
         <v>0.2935277830997532</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3548025926032101</v>
+        <v>0.3548025926032103</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4319460554121022</v>
+        <v>0.4258521233456978</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3763651598155214</v>
+        <v>0.3760320741567448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2694648561937451</v>
+        <v>0.2677821051183799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3414054555425998</v>
+        <v>0.342575306989779</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3674637643935623</v>
+        <v>0.372375330693091</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.251799382762204</v>
+        <v>0.2564625761614794</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2415345401871539</v>
+        <v>0.2424097632970404</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2416393503118001</v>
+        <v>0.243922856116318</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4128711141016254</v>
+        <v>0.4088788919326029</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3263012121897332</v>
+        <v>0.3301183655561477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2652823398667197</v>
+        <v>0.2659513891143899</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3064950541388633</v>
+        <v>0.2998548139188336</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5257987024653842</v>
+        <v>0.5187441637435997</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4655128714460108</v>
+        <v>0.4639805567143621</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3531051160568746</v>
+        <v>0.3509112296301826</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5062539010987086</v>
+        <v>0.5119695708393722</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4589097578977674</v>
+        <v>0.4565189374173235</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3340779457152508</v>
+        <v>0.3378491174529742</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3158138538168431</v>
+        <v>0.3161076420716413</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3479502892600103</v>
+        <v>0.3462909665882022</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4759927834582682</v>
+        <v>0.4736208739710233</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3912527507997158</v>
+        <v>0.3908054716095273</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3258761446926339</v>
+        <v>0.3205003033723011</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4075078538335368</v>
+        <v>0.404426970481487</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4523103923651987</v>
+        <v>0.453189077842421</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5041268461916856</v>
+        <v>0.4944363602610184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4300044650655517</v>
+        <v>0.4366344430411938</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3144692812457837</v>
+        <v>0.3203579864727037</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3707418150636771</v>
+        <v>0.3728370776874312</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3889538966484782</v>
+        <v>0.3876454852722814</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3647679454928525</v>
+        <v>0.3642242395819801</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2736963392871244</v>
+        <v>0.2663883530070169</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4279725991966363</v>
+        <v>0.4282678052248328</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4602106814763506</v>
+        <v>0.4584427052807272</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4153765083991995</v>
+        <v>0.4115371667120196</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3059454630642603</v>
+        <v>0.3065414947934154</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.564368877047285</v>
+        <v>0.5589166251045611</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6123589831943882</v>
+        <v>0.6095524484792731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5448761905425058</v>
+        <v>0.5432999534387128</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4321991021236796</v>
+        <v>0.434284055381286</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4774138357428476</v>
+        <v>0.475889055943882</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5023470254035346</v>
+        <v>0.5009223260511187</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4679279430111184</v>
+        <v>0.4752845025765614</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3610514558375943</v>
+        <v>0.3652921115398607</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5011459455161007</v>
+        <v>0.5056263141789851</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5348606076823359</v>
+        <v>0.5403999034141551</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4894028641990731</v>
+        <v>0.4914823797068844</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3805633119054315</v>
+        <v>0.379584069873204</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3234315793184357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4043585005760759</v>
+        <v>0.4043585005760758</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4217081950987118</v>
@@ -1105,7 +1105,7 @@
         <v>0.3102090924214244</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4012775202859789</v>
+        <v>0.4012775202859788</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5037296300635397</v>
+        <v>0.5022267086033826</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3992121136845088</v>
+        <v>0.3982308834411961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2704132820362601</v>
+        <v>0.2749450427254073</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3173891080432892</v>
+        <v>0.3212927804248938</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3732126703902239</v>
+        <v>0.3717503060581223</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3058257691181537</v>
+        <v>0.3010689694889358</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2504669483178983</v>
+        <v>0.2511256936989119</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3386212602709771</v>
+        <v>0.3339675131264946</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.450303699031285</v>
+        <v>0.4503360262348302</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3623708693613068</v>
+        <v>0.3594724995857229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2766384851911937</v>
+        <v>0.2789703653381682</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.347199081911335</v>
+        <v>0.3512788236857061</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6082390141578791</v>
+        <v>0.606952803665849</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.513076929775574</v>
+        <v>0.5084336207194848</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.375284160246888</v>
+        <v>0.3721191024865158</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4870802011383683</v>
+        <v>0.492369528931203</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4723883666403589</v>
+        <v>0.4688109376925751</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4052083392726821</v>
+        <v>0.4008210341609525</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3446509760148366</v>
+        <v>0.3460355508884629</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.460950173199729</v>
+        <v>0.4564689130319283</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5221291126956372</v>
+        <v>0.5244009607039072</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4342941588376902</v>
+        <v>0.4383771528436926</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3434288651041333</v>
+        <v>0.3470118761887719</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4519080838343814</v>
+        <v>0.4534959916666927</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5072375469292197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.523382214728996</v>
+        <v>0.5233822147289962</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3246921697783718</v>
@@ -1229,7 +1229,7 @@
         <v>0.4443601817872648</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3220127943015347</v>
+        <v>0.3220127943015348</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.343017301978877</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2890192955991935</v>
+        <v>0.2980667066297116</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4307607134483026</v>
+        <v>0.4294663883584209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4393100454062955</v>
+        <v>0.4353523014547269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4680169949321885</v>
+        <v>0.4618043510292013</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2606526949944626</v>
+        <v>0.2622929921930283</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3255297696638995</v>
+        <v>0.3247383135763769</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3794157884511475</v>
+        <v>0.384844708614441</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2746399418554406</v>
+        <v>0.2801496381035017</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2990442446932202</v>
+        <v>0.2993581778759545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3965304245628676</v>
+        <v>0.3958980636501984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4295456773937673</v>
+        <v>0.4271755964241579</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3735188449781666</v>
+        <v>0.375832863387281</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4287131780379596</v>
+        <v>0.4276620887106538</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5771106497935177</v>
+        <v>0.5753817418085132</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5715279602651941</v>
+        <v>0.5724679535055935</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5845283731815843</v>
+        <v>0.5853981836083423</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3876345939207335</v>
+        <v>0.3989899941730063</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4641819839489386</v>
+        <v>0.4598498759717724</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5085702939165185</v>
+        <v>0.5133304499256447</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3706234554079624</v>
+        <v>0.3758154919315817</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3885403737322498</v>
+        <v>0.3919900689846866</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4927280959279881</v>
+        <v>0.4990956457121697</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5246991881798266</v>
+        <v>0.5227457228691552</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4563731634908216</v>
+        <v>0.4627251844924609</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4267695334482876</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2580199136403721</v>
+        <v>0.2580199136403722</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5073986610715883</v>
+        <v>0.5049894813612471</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5134647124606567</v>
+        <v>0.5043092636717701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4561814529857742</v>
+        <v>0.4520079635579527</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2875370635249336</v>
+        <v>0.2785942423869349</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3620327848094884</v>
+        <v>0.3553406291018591</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.372797165367244</v>
+        <v>0.3737563181448101</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2917438056726022</v>
+        <v>0.2847922955218219</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1346638386602563</v>
+        <v>0.1381824334843091</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4486152455714923</v>
+        <v>0.4497166220012059</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4546508981476423</v>
+        <v>0.4576378024616325</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3853856946607493</v>
+        <v>0.3906486100236533</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2250383551947162</v>
+        <v>0.2259838235157491</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6214362533678662</v>
+        <v>0.6215844624099636</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6380851204680029</v>
+        <v>0.6264699275942548</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5725551099119163</v>
+        <v>0.5733617489713396</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3973404677012491</v>
+        <v>0.3867230881801914</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4735421717932621</v>
+        <v>0.4759816787236285</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4843586900396417</v>
+        <v>0.489759931284059</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4006143379617977</v>
+        <v>0.3987934752932646</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2186535667859887</v>
+        <v>0.2152223128819052</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5365140835956004</v>
+        <v>0.5306807383437595</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.540743040788067</v>
+        <v>0.5401334335283451</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4689632113992317</v>
+        <v>0.4696297045147396</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2923717514837804</v>
+        <v>0.2944541106528415</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.447179457629803</v>
+        <v>0.4469263525498088</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5414188415660806</v>
+        <v>0.5438179339703718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4836489331454024</v>
+        <v>0.4845034618775047</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3412105197328311</v>
+        <v>0.3410281666715318</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3945550218199371</v>
+        <v>0.3963308378630723</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3734557853747423</v>
+        <v>0.3760117070034528</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4136085745023336</v>
+        <v>0.4165844703314807</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3014938211862759</v>
+        <v>0.3037624317169602</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4301656562893309</v>
+        <v>0.4315329060414192</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4681245970341871</v>
+        <v>0.4666915023008429</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4608130106307201</v>
+        <v>0.460398908717608</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3320802305240843</v>
+        <v>0.3331395992052738</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5272801008498228</v>
+        <v>0.5255868006316161</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6199176872165322</v>
+        <v>0.621590342424466</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5671163643031552</v>
+        <v>0.5667258735474365</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4412966534292229</v>
+        <v>0.4386673841586282</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4714412474132757</v>
+        <v>0.4712370840033027</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4500851909851353</v>
+        <v>0.450830060710741</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4914994183940858</v>
+        <v>0.4916420547968229</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3773414723079425</v>
+        <v>0.3753191439652851</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4879526200042474</v>
+        <v>0.4890474527937463</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5250216864654847</v>
+        <v>0.5223654800162016</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5162502136089789</v>
+        <v>0.5198428845924195</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3961178895936663</v>
+        <v>0.3960247289566373</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.4507318373970507</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.4410191092600612</v>
+        <v>0.4410191092600611</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.4213060150915472</v>
@@ -1649,7 +1649,7 @@
         <v>0.4993367179789429</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.460577890983238</v>
+        <v>0.4605778909832381</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4335124072928638</v>
+        <v>0.4346317059209206</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.443097553693629</v>
+        <v>0.4416035450143677</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.51140501430463</v>
+        <v>0.5131804608704799</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4381102817217237</v>
+        <v>0.4352837999885605</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3380765650158281</v>
+        <v>0.33834696710618</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3791841812198154</v>
+        <v>0.3767278163773661</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4118265652552487</v>
+        <v>0.4179688608464662</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4041477487661648</v>
+        <v>0.4047771871922917</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3952215129485829</v>
+        <v>0.3944638901767293</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4229243132745414</v>
+        <v>0.4211029910840474</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4747222096967132</v>
+        <v>0.475769585791369</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4326573675565126</v>
+        <v>0.431661100588271</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5083183027149594</v>
+        <v>0.5069566989726254</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5216822410706065</v>
+        <v>0.5183611262124551</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5862893159849502</v>
+        <v>0.5852351609109655</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5236346475050123</v>
+        <v>0.5220825345343736</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.406971530266531</v>
+        <v>0.410080059691652</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4473145750659101</v>
+        <v>0.4505976936208989</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4846656287009607</v>
+        <v>0.4906689382350915</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4816934924139687</v>
+        <v>0.4825785518280872</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4460855490216454</v>
+        <v>0.4476597418663235</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4725171699498323</v>
+        <v>0.4705005849700012</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5230085455690533</v>
+        <v>0.5234385024263982</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.492757840020858</v>
+        <v>0.4894242181733839</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.3876104564465887</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.3471624765937878</v>
+        <v>0.3471624765937879</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.4508491993661912</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4793705911855092</v>
+        <v>0.4800116549989177</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.476276614759228</v>
+        <v>0.4751611213326866</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4439392837454911</v>
+        <v>0.4424729540896555</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3949379233435359</v>
+        <v>0.3922533795319028</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3876577281461242</v>
+        <v>0.3877862588926904</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3707853119922125</v>
+        <v>0.3707378670422237</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3708424105581282</v>
+        <v>0.3718120631084368</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3305230996059919</v>
+        <v>0.3302339312568254</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4395075421811741</v>
+        <v>0.438925716181664</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.4266672921309126</v>
+        <v>0.4256343455814526</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.4116045473461931</v>
+        <v>0.4106567244278691</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3669002462222862</v>
+        <v>0.3664934725809988</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5138467378271427</v>
+        <v>0.5158610351882837</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5109210180082548</v>
+        <v>0.5123082356519546</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4788658019163877</v>
+        <v>0.4772295485656173</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4374175804237558</v>
+        <v>0.4372479536010201</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4217495088494569</v>
+        <v>0.4210922884323418</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4045583395263146</v>
+        <v>0.4041256623333837</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4062808178552755</v>
+        <v>0.404264929491939</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3652431349736872</v>
+        <v>0.364686862662824</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4636914926707911</v>
+        <v>0.463811133366152</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.4512002077380867</v>
+        <v>0.4504978222411887</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.4350940943782815</v>
+        <v>0.4343818794161468</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3944388136147982</v>
+        <v>0.3951521106005882</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>138532</v>
+        <v>137783</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>84325</v>
+        <v>83517</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>99080</v>
+        <v>98980</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>71784</v>
+        <v>71939</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>91847</v>
+        <v>93144</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>83775</v>
+        <v>83553</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>80376</v>
+        <v>80433</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>77407</v>
+        <v>76831</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>237943</v>
+        <v>237566</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>180463</v>
+        <v>178601</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>187262</v>
+        <v>189164</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>157370</v>
+        <v>157435</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>170794</v>
+        <v>171845</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>118082</v>
+        <v>119057</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>134983</v>
+        <v>133539</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>101350</v>
+        <v>100161</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>124946</v>
+        <v>125316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>119580</v>
+        <v>116793</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>112637</v>
+        <v>111326</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>101162</v>
+        <v>101174</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>287574</v>
+        <v>285887</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>227118</v>
+        <v>226634</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>237198</v>
+        <v>237105</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>193998</v>
+        <v>193565</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>212215</v>
+        <v>209221</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>190263</v>
+        <v>190094</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>135426</v>
+        <v>134581</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>73399</v>
+        <v>73650</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>184205</v>
+        <v>186667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>131625</v>
+        <v>134062</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>126113</v>
+        <v>126570</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>55769</v>
+        <v>56296</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>409810</v>
+        <v>405847</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>335524</v>
+        <v>339449</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>271836</v>
+        <v>272522</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>136630</v>
+        <v>133670</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>258324</v>
+        <v>254858</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>235329</v>
+        <v>234555</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>177462</v>
+        <v>176359</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>108840</v>
+        <v>110068</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>230045</v>
+        <v>228847</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>174635</v>
+        <v>176606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>164896</v>
+        <v>165050</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>80304</v>
+        <v>79922</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>472464</v>
+        <v>470109</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>402311</v>
+        <v>401851</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>333927</v>
+        <v>328419</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>181660</v>
+        <v>180287</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>144217</v>
+        <v>144498</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>163360</v>
+        <v>160220</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>135857</v>
+        <v>137952</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>89791</v>
+        <v>91473</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>124351</v>
+        <v>125054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>132641</v>
+        <v>132195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>121709</v>
+        <v>121527</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>81369</v>
+        <v>79196</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>280004</v>
+        <v>280198</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>306070</v>
+        <v>304895</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>269830</v>
+        <v>267336</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>178314</v>
+        <v>178662</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>179947</v>
+        <v>178208</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>198432</v>
+        <v>197523</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>172150</v>
+        <v>171652</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>123407</v>
+        <v>124002</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>160130</v>
+        <v>159619</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>171310</v>
+        <v>170825</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>156129</v>
+        <v>158584</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>107340</v>
+        <v>108600</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>327879</v>
+        <v>330810</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>355718</v>
+        <v>359402</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>317918</v>
+        <v>319269</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>221804</v>
+        <v>221233</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>180673</v>
+        <v>180134</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>149298</v>
+        <v>148931</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>100043</v>
+        <v>101720</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>77238</v>
+        <v>78188</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>138632</v>
+        <v>138089</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>118951</v>
+        <v>117101</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>96510</v>
+        <v>96764</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>81910</v>
+        <v>80785</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>328779</v>
+        <v>328802</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>276465</v>
+        <v>274253</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>208941</v>
+        <v>210702</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>168478</v>
+        <v>170457</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>218158</v>
+        <v>217696</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>191882</v>
+        <v>190145</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>138842</v>
+        <v>137671</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>118533</v>
+        <v>119820</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>175471</v>
+        <v>174143</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>157606</v>
+        <v>155900</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>132801</v>
+        <v>133334</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>111501</v>
+        <v>110417</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>381221</v>
+        <v>382879</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>331337</v>
+        <v>334452</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>259386</v>
+        <v>262093</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>219287</v>
+        <v>220058</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>58481</v>
+        <v>60312</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>91587</v>
+        <v>91312</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>92792</v>
+        <v>91956</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>91528</v>
+        <v>90313</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>54129</v>
+        <v>54470</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>71483</v>
+        <v>71310</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>82935</v>
+        <v>84122</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>58447</v>
+        <v>59619</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>122612</v>
+        <v>122740</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>171384</v>
+        <v>171111</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>184622</v>
+        <v>183603</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>152537</v>
+        <v>153481</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>86748</v>
+        <v>86535</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>122704</v>
+        <v>122337</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>120719</v>
+        <v>120917</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>114313</v>
+        <v>114483</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>80499</v>
+        <v>82857</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>101930</v>
+        <v>100979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>111167</v>
+        <v>112207</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>78873</v>
+        <v>79978</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>159306</v>
+        <v>160721</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>212962</v>
+        <v>215714</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>225520</v>
+        <v>224680</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>186372</v>
+        <v>188966</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>137409</v>
+        <v>136757</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>140680</v>
+        <v>138171</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>120032</v>
+        <v>118934</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>75841</v>
+        <v>73483</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>100697</v>
+        <v>98836</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>104395</v>
+        <v>104663</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>79151</v>
+        <v>77265</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>33665</v>
+        <v>34545</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>246270</v>
+        <v>246874</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>251882</v>
+        <v>253537</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>205960</v>
+        <v>208773</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>115615</v>
+        <v>116100</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>168292</v>
+        <v>168332</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>174823</v>
+        <v>171641</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>150652</v>
+        <v>150865</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>104803</v>
+        <v>102003</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>131713</v>
+        <v>132391</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>135635</v>
+        <v>137148</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>108688</v>
+        <v>108194</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>54662</v>
+        <v>53804</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>294522</v>
+        <v>291320</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>299578</v>
+        <v>299240</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>250626</v>
+        <v>250982</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>150207</v>
+        <v>151277</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>274579</v>
+        <v>274424</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>358330</v>
+        <v>359918</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>317014</v>
+        <v>317574</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>188097</v>
+        <v>187997</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>249675</v>
+        <v>250799</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>258754</v>
+        <v>260525</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>283855</v>
+        <v>285898</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>172792</v>
+        <v>174092</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>536342</v>
+        <v>538046</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>634168</v>
+        <v>632227</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>618297</v>
+        <v>617742</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>373385</v>
+        <v>374577</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>323763</v>
+        <v>322723</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>410283</v>
+        <v>411390</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>371724</v>
+        <v>371468</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>243271</v>
+        <v>241822</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>298329</v>
+        <v>298200</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>311848</v>
+        <v>312364</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>337311</v>
+        <v>337409</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>216262</v>
+        <v>215103</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>608392</v>
+        <v>609757</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>711247</v>
+        <v>707649</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>692680</v>
+        <v>697501</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>445388</v>
+        <v>445283</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>321961</v>
+        <v>322793</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>344760</v>
+        <v>343598</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>398171</v>
+        <v>399554</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>231831</v>
+        <v>230336</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>263523</v>
+        <v>263734</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>312392</v>
+        <v>310368</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>340238</v>
+        <v>345312</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>201247</v>
+        <v>201561</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>601589</v>
+        <v>600436</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>677492</v>
+        <v>674574</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>761810</v>
+        <v>763491</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>444389</v>
+        <v>443366</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>377518</v>
+        <v>376507</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>405905</v>
+        <v>403321</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>456475</v>
+        <v>455654</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>277088</v>
+        <v>276266</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>317225</v>
+        <v>319648</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>368521</v>
+        <v>371226</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>400415</v>
+        <v>405374</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>239862</v>
+        <v>240302</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>679012</v>
+        <v>681408</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>756936</v>
+        <v>753705</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>839298</v>
+        <v>839988</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>506119</v>
+        <v>502695</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1565284</v>
+        <v>1567377</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1630227</v>
+        <v>1626409</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1503910</v>
+        <v>1498943</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>988434</v>
+        <v>981715</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1302921</v>
+        <v>1303353</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1318236</v>
+        <v>1318067</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1308615</v>
+        <v>1312037</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>831384</v>
+        <v>830657</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2912308</v>
+        <v>2908453</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2977331</v>
+        <v>2970123</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2846827</v>
+        <v>2840271</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1841148</v>
+        <v>1839107</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1677859</v>
+        <v>1684436</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1748810</v>
+        <v>1753558</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1622229</v>
+        <v>1616686</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1094750</v>
+        <v>1094326</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1417504</v>
+        <v>1415295</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1438307</v>
+        <v>1436769</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1433669</v>
+        <v>1426555</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>918717</v>
+        <v>917318</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3072558</v>
+        <v>3073351</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>3148525</v>
+        <v>3143623</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>3009290</v>
+        <v>3004364</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1979340</v>
+        <v>1982919</v>
       </c>
     </row>
     <row r="40">
